--- a/data/trans_camb/P14B24_2016_2023-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P14B24_2016_2023-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>2.921255089990598</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-0.5121193855602106</v>
+        <v>-0.5121193855602113</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1.216471092468257</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.359695294376318</v>
+        <v>1.346265139519458</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.65663988786436</v>
+        <v>-2.478500407158211</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1338066116565957</v>
+        <v>-0.3255897320881271</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.815537942268787</v>
+        <v>4.972177333111776</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.640752914857567</v>
+        <v>1.540599873074593</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.719669613259022</v>
+        <v>2.506867301331487</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>2.425428842584718</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.09763617309471813</v>
+        <v>-0.09763617309471825</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.3775674117866105</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.5388162930304321</v>
+        <v>0.5683226716006685</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4007879309601133</v>
+        <v>-0.3774328156218986</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.03683872427284078</v>
+        <v>-0.07905697215876988</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>7.679130215946816</v>
+        <v>8.371798410845987</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4299622895882045</v>
+        <v>0.4073325687823444</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.092883502717357</v>
+        <v>0.994320158711691</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2347261083402287</v>
+        <v>-0.3876417350010008</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4671878364578845</v>
+        <v>-0.404488390537132</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.02378393424761851</v>
+        <v>-0.08458560099247166</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.628203534246904</v>
+        <v>1.595424686013759</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.915463150021149</v>
+        <v>2.990349740972368</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.971183257740321</v>
+        <v>1.978689170132197</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2390097201147569</v>
+        <v>-0.2567236583114599</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1125198972349725</v>
+        <v>-0.1031012015596645</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.01552720359533243</v>
+        <v>-0.02840195029235536</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.66834879542253</v>
+        <v>2.552878502170731</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9747649567202349</v>
+        <v>1.009453434332454</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.038722101355516</v>
+        <v>1.018531164258605</v>
       </c>
     </row>
     <row r="16">
@@ -779,10 +779,10 @@
         <v>1.191667227607568</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.040135622232935</v>
+        <v>3.040135622232936</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.109478267729309</v>
+        <v>2.109478267729308</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1593587545980975</v>
+        <v>-0.2161757789548522</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6570099424654405</v>
+        <v>0.8240654317566922</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6866801811883195</v>
+        <v>0.5956456959572399</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.964692892469915</v>
+        <v>2.912790811171393</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.315857839879006</v>
+        <v>5.477441487749548</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.490961652145973</v>
+        <v>3.375752786958769</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.9798088636204118</v>
+        <v>0.9798088636204121</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.6395592870407109</v>
+        <v>0.6395592870407112</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.699891726769574</v>
+        <v>0.6998917267695738</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.188479849120009</v>
+        <v>-0.2262116031657943</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.08933995047681378</v>
+        <v>0.118283423124</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1756194630619232</v>
+        <v>0.1480287862454168</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>4.681705568698439</v>
+        <v>4.310327507902737</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.473558072870839</v>
+        <v>1.481523942996076</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.485875194055891</v>
+        <v>1.376302917940353</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>2.195297419227281</v>
+        <v>2.19529741922728</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>3.641532854025606</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.968914109122894</v>
+        <v>2.968914109122893</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9959956880189305</v>
+        <v>0.9949866495475242</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.704910554709345</v>
+        <v>1.690886871796045</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.842978890767753</v>
+        <v>1.833411164516724</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.565925128458952</v>
+        <v>3.534559708018743</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.386052956662661</v>
+        <v>5.366376773669084</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.099089465824828</v>
+        <v>4.080814267552456</v>
       </c>
     </row>
     <row r="25">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>2.125831125388628</v>
+        <v>2.125831125388627</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>1.100276747748192</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.4723182078478551</v>
+        <v>0.5300946292582608</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3460009765942661</v>
+        <v>0.3948564607165401</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.6244791130701889</v>
+        <v>0.6628311962563004</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.697402809915818</v>
+        <v>5.881326149186409</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.128117277374758</v>
+        <v>2.331461127514671</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.343366329020495</v>
+        <v>2.340108873219153</v>
       </c>
     </row>
     <row r="28">
@@ -991,7 +991,7 @@
         <v>1.656612043397445</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>2.020932782145964</v>
+        <v>2.020932782145966</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>1.853121729338093</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9997744736090648</v>
+        <v>1.062828893737267</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.045368145225067</v>
+        <v>1.04585926254388</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.252538083142873</v>
+        <v>1.246953730980338</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.393654663125498</v>
+        <v>2.441641161343873</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.969458546107831</v>
+        <v>2.956215918022722</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.437722428165521</v>
+        <v>2.397294070312076</v>
       </c>
     </row>
     <row r="31">
@@ -1042,7 +1042,7 @@
         <v>1.514476788658963</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.4882712010400481</v>
+        <v>0.4882712010400485</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.6994071089582349</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.7047004713261332</v>
+        <v>0.7700050377806782</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2374051342264243</v>
+        <v>0.2005138501873275</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.4159493725174828</v>
+        <v>0.4014702348707492</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.705500004549214</v>
+        <v>2.725426830600561</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8593647098175292</v>
+        <v>0.803388056458995</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.014893132337539</v>
+        <v>0.9895492975536075</v>
       </c>
     </row>
     <row r="34">
